--- a/Dataforexpreiment/图/62PC的正常执行的延迟的时间复杂度.xlsx
+++ b/Dataforexpreiment/图/62PC的正常执行的延迟的时间复杂度.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>交易大小</t>
   </si>
   <si>
     <t>交易轮数</t>
-  </si>
-  <si>
-    <t>δ</t>
   </si>
   <si>
     <t>Δ</t>
@@ -975,7 +972,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -994,17 +991,15 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1014,9 +1009,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="2">
         <v>100</v>
       </c>
@@ -1036,9 +1029,7 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="2">
         <v>100</v>
       </c>
@@ -1058,9 +1049,7 @@
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="2">
         <v>100</v>
       </c>
@@ -1080,9 +1069,7 @@
       <c r="B5">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="2">
         <v>100</v>
       </c>
@@ -1102,9 +1089,7 @@
       <c r="B6">
         <v>50</v>
       </c>
-      <c r="C6" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="2">
         <v>100</v>
       </c>
@@ -1124,9 +1109,7 @@
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="2">
         <v>100</v>
       </c>
@@ -1146,9 +1129,7 @@
       <c r="B8">
         <v>200</v>
       </c>
-      <c r="C8" s="3">
-        <v>11.3814</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="2">
         <v>100</v>
       </c>
